--- a/biology/Botanique/Bosquet_de_la_Reine/Bosquet_de_la_Reine.xlsx
+++ b/biology/Botanique/Bosquet_de_la_Reine/Bosquet_de_la_Reine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bosquet de la Reine est un bosquet des jardins de Versailles.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet de la Reine est délimité par l'allée du Mail au Sud, l'allée de l'Été à l'Ouest et l'allée de Cérès-et-de-Flore au Nord.
 À l'angle Nord-Ouest se trouve le bassin de Bacchus.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans le cœur du bosquet :
 Faune au chevreau
@@ -605,11 +623,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet de la Reine remplace le Labyrinthe, construit en 1669 et détruit vers 1775.
 Les fontaines du bosquet sont installées à la fin du XIXe siècle.
-Le bosquet est réaménagé au début des années 2020, afin de « retrouver la richesse végétale et la diversité botanique imaginées par Marie-Antoinette ». Environ 350 arbres sont plantés, de même que 50 variétés de roses[1].
+Le bosquet est réaménagé au début des années 2020, afin de « retrouver la richesse végétale et la diversité botanique imaginées par Marie-Antoinette ». Environ 350 arbres sont plantés, de même que 50 variétés de roses.
 </t>
         </is>
       </c>
@@ -638,10 +658,12 @@
           <t>Arbres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>On trouve dans le bosquet :
-un tulipier de Virginie (ou arbre aux lis)[1] ;
+un tulipier de Virginie (ou arbre aux lis) ;
 un noisetier de Byzance.</t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Statuaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
